--- a/excel/sd_espera.xlsx
+++ b/excel/sd_espera.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003724047065691333</v>
+        <v>16.88260911855697</v>
       </c>
     </row>
   </sheetData>
